--- a/MonsterData.xlsx
+++ b/MonsterData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>CharacterName</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -94,6 +94,10 @@
   </si>
   <si>
     <t>Crystal Spider</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agility</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -438,13 +442,14 @@
     <col min="5" max="5" width="11.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.625" customWidth="1"/>
+    <col min="8" max="8" width="8.75" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -464,16 +469,19 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -496,16 +504,19 @@
         <v>10</v>
       </c>
       <c r="H2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J2">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -528,16 +539,19 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -560,16 +574,19 @@
         <v>30</v>
       </c>
       <c r="H4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -592,16 +609,19 @@
         <v>40</v>
       </c>
       <c r="H5">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -624,16 +644,19 @@
         <v>50</v>
       </c>
       <c r="H6">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -656,16 +679,19 @@
         <v>60</v>
       </c>
       <c r="H7">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -688,16 +714,19 @@
         <v>70</v>
       </c>
       <c r="H8">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -720,16 +749,19 @@
         <v>80</v>
       </c>
       <c r="H9">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="K9">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -752,12 +784,15 @@
         <v>100</v>
       </c>
       <c r="H10">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J10">
+        <v>5</v>
+      </c>
+      <c r="K10">
         <v>5</v>
       </c>
     </row>
